--- a/changes/m4-handguards.xlsx
+++ b/changes/m4-handguards.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B81C32C-BF30-4A59-8F30-93DD6D2C49A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1464CF9E-7C70-47D9-A1AF-4ED39AA11DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1004,9 +1004,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1044,7 +1044,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1150,7 +1150,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1292,7 +1292,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1303,7 +1303,7 @@
   <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:B29"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1394,14 +1394,14 @@
         <v>-10</v>
       </c>
       <c r="H3">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" ref="N3:N23" si="0">C3-D3*20-E3*0.8-F3*0.6-H3*5+I3*10+J3/300</f>
-        <v>23.75</v>
+        <v>23.85</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1424,14 +1424,14 @@
         <v>-16</v>
       </c>
       <c r="H4">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="M4">
         <v>500</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="0"/>
-        <v>24.200000000000003</v>
+        <v>24.450000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1454,14 +1454,14 @@
         <v>-15</v>
       </c>
       <c r="H5">
-        <v>7.0000000000000007E-2</v>
+        <v>0.03</v>
       </c>
       <c r="M5">
         <v>600</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="0"/>
-        <v>24.25</v>
+        <v>24.450000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1484,14 +1484,14 @@
         <v>-10</v>
       </c>
       <c r="H6">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="M6">
         <v>550</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="0"/>
-        <v>24.35</v>
+        <v>24.450000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1703,14 +1703,14 @@
         <v>-13</v>
       </c>
       <c r="H14">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="M14">
         <v>700</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="0"/>
-        <v>17.8</v>
+        <v>17.850000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1748,14 +1748,14 @@
         <v>-13</v>
       </c>
       <c r="H16">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="M16">
         <v>1200</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" si="0"/>
-        <v>19.2</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
